--- a/Laptops_XLSX.xlsx
+++ b/Laptops_XLSX.xlsx
@@ -4,41 +4,26 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,33 +43,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -157,41 +125,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -199,1527 +167,1635 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Aspire E1-572G</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>15.6", Core i5-4200U, 8GB, 1TB, Radeon R7 M265, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Aspire E1-572G</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>15.6", Core i5-4200U, 8GB, 1TB, Radeon R7 M265, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Aspire E1-572G</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>15.6", Core i5-4200U, 8GB, 1TB, Radeon R7 M265, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Aspire E1-572G</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>15.6", Core i5-4200U, 8GB, 1TB, Radeon R7 M265, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Aspire E1-572G</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>15.6", Core i5-4200U, 8GB, 1TB, Radeon R7 M265, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Aspire E1-572G</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>15.6", Core i5-4200U, 8GB, 1TB, Radeon R7 M265, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>HP 250 G3</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>15.6", Core i5-4210U, 4GB, 500GB, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>HP 250 G3</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>15.6", Core i5-4210U, 4GB, 500GB, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>HP 250 G3</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>15.6", Core i5-4210U, 4GB, 500GB, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>HP 250 G3</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>15.6", Core i5-4210U, 4GB, 500GB, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>HP 250 G3</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>15.6", Core i5-4210U, 4GB, 500GB, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>HP 250 G3</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>15.6", Core i5-4210U, 4GB, 500GB, Windows 8.1</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Acer Aspire A5...</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Acer Aspire A515-51-5654, Black, 15.6", FHD, Core i5-8250U, 8GB DDR4, 256GB SSD, Windows 10 Home, ENG</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Acer Aspire A5...</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Acer Aspire A515-51-5654, Black, 15.6", FHD, Core i5-8250U, 8GB DDR4, 256GB SSD, Windows 10 Home, ENG</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Acer Aspire A5...</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Acer Aspire A515-51-5654, Black, 15.6", FHD, Core i5-8250U, 8GB DDR4, 256GB SSD, Windows 10 Home, ENG</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Acer Aspire A5...</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Acer Aspire A515-51-5654, Black, 15.6", FHD, Core i5-8250U, 8GB DDR4, 256GB SSD, Windows 10 Home, ENG</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Acer Aspire A5...</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Acer Aspire A515-51-5654, Black, 15.6", FHD, Core i5-8250U, 8GB DDR4, 256GB SSD, Windows 10 Home, ENG</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Acer Aspire A5...</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Acer Aspire A515-51-5654, Black, 15.6", FHD, Core i5-8250U, 8GB DDR4, 256GB SSD, Windows 10 Home, ENG</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad L570, 15.6" FHD, Core i7-7500U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad L570, 15.6" FHD, Core i7-7500U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad L570, 15.6" FHD, Core i7-7500U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad L570, 15.6" FHD, Core i7-7500U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad L570, 15.6" FHD, Core i7-7500U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad L570, 15.6" FHD, Core i7-7500U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Asus VivoBook...</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Asus VivoBook X441NA-GA190 Chocolate Black, 14", Celeron N3450, 4GB, 128GB SSD, Endless OS, ENG kbd</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Asus VivoBook...</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Asus VivoBook X441NA-GA190 Chocolate Black, 14", Celeron N3450, 4GB, 128GB SSD, Endless OS, ENG kbd</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Asus VivoBook...</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Asus VivoBook X441NA-GA190 Chocolate Black, 14", Celeron N3450, 4GB, 128GB SSD, Endless OS, ENG kbd</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Asus VivoBook...</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Asus VivoBook X441NA-GA190 Chocolate Black, 14", Celeron N3450, 4GB, 128GB SSD, Endless OS, ENG kbd</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Asus VivoBook...</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Asus VivoBook X441NA-GA190 Chocolate Black, 14", Celeron N3450, 4GB, 128GB SSD, Endless OS, ENG kbd</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Asus VivoBook...</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Asus VivoBook X441NA-GA190 Chocolate Black, 14", Celeron N3450, 4GB, 128GB SSD, Endless OS, ENG kbd</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-31 Black, 15.6" HD, Celeron N3350 1.1GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-31 Black, 15.6" HD, Celeron N3350 1.1GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-31 Black, 15.6" HD, Celeron N3350 1.1GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-31 Black, 15.6" HD, Celeron N3350 1.1GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-31 Black, 15.6" HD, Celeron N3350 1.1GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-31 Black, 15.6" HD, Celeron N3350 1.1GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad E31-80, 13.3" HD, Celeron 3855U 1.6GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad E31-80, 13.3" HD, Celeron 3855U 1.6GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad E31-80, 13.3" HD, Celeron 3855U 1.6GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad E31-80, 13.3" HD, Celeron 3855U 1.6GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad E31-80, 13.3" HD, Celeron 3855U 1.6GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad E31-80, 13.3" HD, Celeron 3855U 1.6GHz, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-51, 15.6" HD, Core i3-6006U, 4GB, 1TB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-51, 15.6" HD, Core i3-6006U, 4GB, 1TB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-51, 15.6" HD, Core i3-6006U, 4GB, 1TB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-51, 15.6" HD, Core i3-6006U, 4GB, 1TB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-51, 15.6" HD, Core i3-6006U, 4GB, 1TB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Acer Aspire 3...</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Acer Aspire 3 A315-51, 15.6" HD, Core i3-6006U, 4GB, 1TB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Lenovo V110-15...</t>
         </is>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Lenovo V110-15IKB, 15.6" HD, Core i5-7200U, 4GB, 500GB, DOS</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Lenovo V110-15...</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Lenovo V110-15IKB, 15.6" HD, Core i5-7200U, 4GB, 500GB, DOS</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Lenovo V110-15...</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Lenovo V110-15IKB, 15.6" HD, Core i5-7200U, 4GB, 500GB, DOS</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Lenovo V110-15...</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Lenovo V110-15IKB, 15.6" HD, Core i5-7200U, 4GB, 500GB, DOS</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Lenovo V110-15...</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Lenovo V110-15IKB, 15.6" HD, Core i5-7200U, 4GB, 500GB, DOS</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Lenovo V110-15...</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Lenovo V110-15IKB, 15.6" HD, Core i5-7200U, 4GB, 500GB, DOS</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>Acer Swift 1 S...</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Acer Swift 1 SF113-31 Silver, 13.3" FHD, Pentium N4200, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Acer Swift 1 S...</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Acer Swift 1 SF113-31 Silver, 13.3" FHD, Pentium N4200, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>Acer Swift 1 S...</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Acer Swift 1 SF113-31 Silver, 13.3" FHD, Pentium N4200, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Acer Swift 1 S...</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Acer Swift 1 SF113-31 Silver, 13.3" FHD, Pentium N4200, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>Acer Swift 1 S...</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Acer Swift 1 SF113-31 Silver, 13.3" FHD, Pentium N4200, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>Acer Swift 1 S...</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Acer Swift 1 SF113-31 Silver, 13.3" FHD, Pentium N4200, 4GB, 128GB SSD, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX, 17.3" FHD, Core i5-7300HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX, 17.3" FHD, Core i5-7300HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX, 17.3" FHD, Core i5-7300HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX</t>
         </is>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX, 17.3" FHD, Core i5-7300HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX, 17.3" FHD, Core i5-7300HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>MSI GL72M 7RDX, 17.3" FHD, Core i5-7300HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Toshiba Porteg...</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Toshiba Portege Z30-C-16J Grey, 13.3" FHD, Core i5-6200U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Toshiba Porteg...</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Toshiba Portege Z30-C-16J Grey, 13.3" FHD, Core i5-6200U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Toshiba Porteg...</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Toshiba Portege Z30-C-16J Grey, 13.3" FHD, Core i5-6200U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>Toshiba Porteg...</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Toshiba Portege Z30-C-16J Grey, 13.3" FHD, Core i5-6200U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>Toshiba Porteg...</t>
         </is>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Toshiba Portege Z30-C-16J Grey, 13.3" FHD, Core i5-6200U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Toshiba Porteg...</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Toshiba Portege Z30-C-16J Grey, 13.3" FHD, Core i5-6200U, 8GB, 256GB SSD, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Asus AsusPro A...</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Asus AsusPro Advanced BU401LA-FA271G Dark Grey, 14", Core i5-4210U, 4GB, 128GB SSD, Win7 Pro 64bit, ENG</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Asus AsusPro A...</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Asus AsusPro Advanced BU401LA-FA271G Dark Grey, 14", Core i5-4210U, 4GB, 128GB SSD, Win7 Pro 64bit, ENG</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Asus AsusPro A...</t>
         </is>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Asus AsusPro Advanced BU401LA-FA271G Dark Grey, 14", Core i5-4210U, 4GB, 128GB SSD, Win7 Pro 64bit, ENG</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Asus AsusPro A...</t>
         </is>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Asus AsusPro Advanced BU401LA-FA271G Dark Grey, 14", Core i5-4210U, 4GB, 128GB SSD, Win7 Pro 64bit, ENG</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>Asus AsusPro A...</t>
         </is>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Asus AsusPro Advanced BU401LA-FA271G Dark Grey, 14", Core i5-4210U, 4GB, 128GB SSD, Win7 Pro 64bit, ENG</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Asus AsusPro A...</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Asus AsusPro Advanced BU401LA-FA271G Dark Grey, 14", Core i5-4210U, 4GB, 128GB SSD, Win7 Pro 64bit, ENG</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Lenovo Yoga 72...</t>
         </is>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Lenovo Yoga 720 Grey, 15.6" FHD IPS, Core i5-7300HQ, 8GB, 256GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Lenovo Yoga 72...</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Lenovo Yoga 720 Grey, 15.6" FHD IPS, Core i5-7300HQ, 8GB, 256GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Lenovo Yoga 72...</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Lenovo Yoga 720 Grey, 15.6" FHD IPS, Core i5-7300HQ, 8GB, 256GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="A83" t="inlineStr">
         <is>
           <t>Lenovo Yoga 72...</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Lenovo Yoga 720 Grey, 15.6" FHD IPS, Core i5-7300HQ, 8GB, 256GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+      <c r="A84" t="inlineStr">
         <is>
           <t>Lenovo Yoga 72...</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Lenovo Yoga 720 Grey, 15.6" FHD IPS, Core i5-7300HQ, 8GB, 256GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Lenovo Yoga 72...</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Lenovo Yoga 720 Grey, 15.6" FHD IPS, Core i5-7300HQ, 8GB, 256GB SSD, GeForce GTX 1050 2GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="A86" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ. 8GB, 128GB SSD +1TB, GeForce GTX 1050Ti 4GB, Linux + Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ. 8GB, 128GB SSD +1TB, GeForce GTX 1050Ti 4GB, Linux + Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ. 8GB, 128GB SSD +1TB, GeForce GTX 1050Ti 4GB, Linux + Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="A89" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ. 8GB, 128GB SSD +1TB, GeForce GTX 1050Ti 4GB, Linux + Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ. 8GB, 128GB SSD +1TB, GeForce GTX 1050Ti 4GB, Linux + Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ. 8GB, 128GB SSD +1TB, GeForce GTX 1050Ti 4GB, Linux + Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 Ti 4GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+      <c r="A93" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 Ti 4GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 Ti 4GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 Ti 4GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
+      <c r="A96" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 Ti 4GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
+      <c r="A97" t="inlineStr">
         <is>
           <t>Acer Predator...</t>
         </is>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>Acer Predator Helios 300 (PH317-51), 17.3" FHD IPS, Core i7-7700HQ, 8GB, 1TB + 128GB SSD, GeForce GTX 1050 Ti 4GB, Windows 10 Home</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
+      <c r="A98" t="inlineStr">
         <is>
           <t>Dell Latitude...</t>
         </is>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>Dell Latitude 5480, 14" FHD, Core i7-7600U, 8GB, 1TB, GeForce GT930MX, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
+      <c r="A99" t="inlineStr">
         <is>
           <t>Dell Latitude...</t>
         </is>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Dell Latitude 5480, 14" FHD, Core i7-7600U, 8GB, 1TB, GeForce GT930MX, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
+      <c r="A100" t="inlineStr">
         <is>
           <t>Dell Latitude...</t>
         </is>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Dell Latitude 5480, 14" FHD, Core i7-7600U, 8GB, 1TB, GeForce GT930MX, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
+      <c r="A101" t="inlineStr">
         <is>
           <t>Dell Latitude...</t>
         </is>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Dell Latitude 5480, 14" FHD, Core i7-7600U, 8GB, 1TB, GeForce GT930MX, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
+      <c r="A102" t="inlineStr">
         <is>
           <t>Dell Latitude...</t>
         </is>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Dell Latitude 5480, 14" FHD, Core i7-7600U, 8GB, 1TB, GeForce GT930MX, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
+      <c r="A103" t="inlineStr">
         <is>
           <t>Dell Latitude...</t>
         </is>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Dell Latitude 5480, 14" FHD, Core i7-7600U, 8GB, 1TB, GeForce GT930MX, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
+      <c r="A104" t="inlineStr">
         <is>
           <t>Apple MacBook...</t>
         </is>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Apple MacBook Pro 13" Space Gray, Core i5 2.3GHz, 8GB, 128GB SSD, Iris Plus 640, ENG</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
+      <c r="A105" t="inlineStr">
         <is>
           <t>Apple MacBook...</t>
         </is>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Apple MacBook Pro 13" Space Gray, Core i5 2.3GHz, 8GB, 128GB SSD, Iris Plus 640, ENG</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
+      <c r="A106" t="inlineStr">
         <is>
           <t>Apple MacBook...</t>
         </is>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Apple MacBook Pro 13" Space Gray, Core i5 2.3GHz, 8GB, 128GB SSD, Iris Plus 640, ENG</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
+      <c r="A107" t="inlineStr">
         <is>
           <t>Apple MacBook...</t>
         </is>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Apple MacBook Pro 13" Space Gray, Core i5 2.3GHz, 8GB, 128GB SSD, Iris Plus 640, ENG</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
+      <c r="A108" t="inlineStr">
         <is>
           <t>Apple MacBook...</t>
         </is>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Apple MacBook Pro 13" Space Gray, Core i5 2.3GHz, 8GB, 128GB SSD, Iris Plus 640, ENG</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="inlineStr">
+      <c r="A109" t="inlineStr">
         <is>
           <t>Apple MacBook...</t>
         </is>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>Apple MacBook Pro 13" Space Gray, Core i5 2.3GHz, 8GB, 128GB SSD, Iris Plus 640, ENG</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
+      <c r="A110" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad Yoga 370 Black, 13.3" FHD IPS Touch, Core i5-7200U, 8GB, 256GB SSD, 4G, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="inlineStr">
+      <c r="A111" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad Yoga 370 Black, 13.3" FHD IPS Touch, Core i5-7200U, 8GB, 256GB SSD, 4G, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
+      <c r="A112" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad Yoga 370 Black, 13.3" FHD IPS Touch, Core i5-7200U, 8GB, 256GB SSD, 4G, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
+      <c r="A113" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad Yoga 370 Black, 13.3" FHD IPS Touch, Core i5-7200U, 8GB, 256GB SSD, 4G, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
+      <c r="A114" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad Yoga 370 Black, 13.3" FHD IPS Touch, Core i5-7200U, 8GB, 256GB SSD, 4G, Windows 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
+      <c r="A115" t="inlineStr">
         <is>
           <t>Lenovo ThinkPa...</t>
         </is>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Lenovo ThinkPad Yoga 370 Black, 13.3" FHD IPS Touch, Core i5-7200U, 8GB, 256GB SSD, 4G, Windows 10 Pro</t>
         </is>
@@ -1762,8 +1838,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>